--- a/참고자료/강좌서류/첨부 1. 실무중심산학협력프로젝트_팀명단 제출 양식(2019-1학기).xlsx
+++ b/참고자료/강좌서류/첨부 1. 실무중심산학협력프로젝트_팀명단 제출 양식(2019-1학기).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C18F62-E52C-4C4B-9959-29CC726D3B83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ACFD1F-6CB9-4E43-9276-4ED4FA1632E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="506" windowWidth="16645" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="1110" windowWidth="16650" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="과제물 샘블 보관" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>주제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>팀명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이파이브(HighFive)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -967,26 +971,26 @@
   <dimension ref="C1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="2.75" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
-    <col min="7" max="7" width="30.08203125" customWidth="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="7" max="7" width="30.125" customWidth="1"/>
+    <col min="8" max="8" width="40.375" customWidth="1"/>
     <col min="9" max="9" width="47.75" customWidth="1"/>
     <col min="10" max="10" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="3:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="3:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1012,15 +1016,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8">
-        <v>1353</v>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>9</v>
@@ -1036,7 +1040,7 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="3:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="8"/>
@@ -1046,7 +1050,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="8"/>
@@ -1056,7 +1060,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="3:10" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="3:10" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
@@ -1066,7 +1070,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
